--- a/elevator.xlsx
+++ b/elevator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>door close</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>avg stay time</t>
+  </si>
+  <si>
+    <t>avg door open time</t>
+  </si>
+  <si>
+    <t>avg door close time</t>
+  </si>
+  <si>
+    <t>avg time move(1 floor)</t>
   </si>
 </sst>
 </file>
@@ -64,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm:ss.0;@"/>
+    <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -382,23 +393,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -412,8 +423,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="B2">
@@ -426,8 +437,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1.5208333333333333E-4</v>
       </c>
       <c r="B3">
@@ -437,8 +448,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5.99537037037037E-5</v>
       </c>
       <c r="B4">
@@ -447,13 +458,27 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <f xml:space="preserve"> (A9+A13+A17)/3</f>
+        <v>3.0054012345679011E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(A5+A8+A12+A16)/4</f>
+        <v>6.7968749999999995E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3.3680555555555555E-5</v>
       </c>
       <c r="B6">
@@ -462,21 +487,35 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(A6+A10+A14+A18)/4</f>
+        <v>7.2019675925925924E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3.9930555555555558E-5</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <f>(A7+A11+A15)/3</f>
+        <v>3.6149691358024699E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>8.9583333333333333E-5</v>
       </c>
       <c r="B8">
@@ -489,8 +528,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2.2337962962962963E-5</v>
       </c>
       <c r="B9"/>
@@ -498,8 +537,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9.0625000000000007E-5</v>
       </c>
       <c r="B10"/>
@@ -507,8 +546,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>3.4259259259259262E-5</v>
       </c>
       <c r="B11"/>
@@ -516,8 +555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9.0740740740740734E-5</v>
       </c>
       <c r="B12">
@@ -530,8 +569,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>3.4259259259259262E-5</v>
       </c>
       <c r="B13"/>
@@ -539,8 +578,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>9.0740740740740734E-5</v>
       </c>
       <c r="B14"/>
@@ -548,8 +587,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3.4259259259259262E-5</v>
       </c>
       <c r="B15"/>
@@ -557,8 +596,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>9.1550925925925928E-5</v>
       </c>
       <c r="B16">
@@ -572,7 +611,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>3.3564814814814815E-5</v>
       </c>
       <c r="B17"/>
@@ -581,7 +620,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>7.3032407407407399E-5</v>
       </c>
       <c r="B18"/>
@@ -590,7 +629,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>3.2754629629629628E-5</v>
       </c>
       <c r="B19"/>
@@ -599,7 +638,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <f>SUM(A6:A19)</f>
+        <v>7.9131944444444454E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
